--- a/Rubric-Sprint 3v1.xlsx
+++ b/Rubric-Sprint 3v1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruce\Desktop\IS 413\chef-masterspr3\chef-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruce\Desktop\winter semester 2015\IS 413\chef-masterspr3\chef-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -110,6 +110,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Cambria"/>
+        <family val="1"/>
         <scheme val="major"/>
       </rPr>
       <t>employee</t>
@@ -119,6 +120,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Cambria"/>
+        <family val="1"/>
         <scheme val="major"/>
       </rPr>
       <t xml:space="preserve"> login credentials against Active Directory</t>
@@ -165,18 +167,21 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Cambria"/>
+      <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Cambria"/>
+      <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
@@ -184,6 +189,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Cambria"/>
+      <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
@@ -191,6 +197,7 @@
       <sz val="12"/>
       <color rgb="FF008000"/>
       <name val="Cambria"/>
+      <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
@@ -204,6 +211,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Cambria"/>
+      <family val="1"/>
       <scheme val="major"/>
     </font>
   </fonts>
@@ -999,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1093,7 +1101,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="2">
         <f>SUM(C8:C12)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2">
         <f>SUM(D8:D12)</f>
@@ -1106,7 +1114,9 @@
       <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2">
+        <v>10</v>
+      </c>
       <c r="D8" s="2">
         <v>10</v>
       </c>
@@ -1184,7 +1194,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="2">
         <f>SUM(C15:C16)</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2">
         <f>SUM(D15:D16)</f>
@@ -1212,7 +1222,9 @@
       <c r="B16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2">
+        <v>10</v>
+      </c>
       <c r="D16" s="2">
         <v>10</v>
       </c>
@@ -1238,7 +1250,7 @@
       <c r="D18" s="5"/>
       <c r="E18" s="2">
         <f>SUM(C19:C23)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F18" s="2">
         <f>SUM(D19:D23)</f>
@@ -1264,7 +1276,9 @@
       <c r="B20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2">
+        <v>15</v>
+      </c>
       <c r="D20" s="2">
         <v>15</v>
       </c>
@@ -1329,7 +1343,7 @@
       <c r="D25" s="5"/>
       <c r="E25" s="2">
         <f>SUM(E7:E24)</f>
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F25" s="2">
         <f>SUM(F7:F24)</f>
@@ -1361,7 +1375,7 @@
       <c r="D27" s="5"/>
       <c r="E27" s="2">
         <f>E25*E26</f>
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F27" s="10">
         <f>F25*F26</f>
@@ -1379,7 +1393,7 @@
       <c r="E28" s="5"/>
       <c r="F28" s="11">
         <f>E27/F27</f>
-        <v>0.14814814814814814</v>
+        <v>0.40740740740740738</v>
       </c>
       <c r="G28" s="5"/>
     </row>

--- a/Rubric-Sprint 3v1.xlsx
+++ b/Rubric-Sprint 3v1.xlsx
@@ -1008,7 +1008,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1101,7 +1101,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="2">
         <f>SUM(C8:C12)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F7" s="2">
         <f>SUM(D8:D12)</f>
@@ -1129,7 +1129,9 @@
       <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
       <c r="D9" s="2">
         <v>5</v>
       </c>
@@ -1343,7 +1345,7 @@
       <c r="D25" s="5"/>
       <c r="E25" s="2">
         <f>SUM(E7:E24)</f>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F25" s="2">
         <f>SUM(F7:F24)</f>
@@ -1375,7 +1377,7 @@
       <c r="D27" s="5"/>
       <c r="E27" s="2">
         <f>E25*E26</f>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F27" s="10">
         <f>F25*F26</f>
@@ -1393,7 +1395,7 @@
       <c r="E28" s="5"/>
       <c r="F28" s="11">
         <f>E27/F27</f>
-        <v>0.40740740740740738</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="G28" s="5"/>
     </row>

--- a/Rubric-Sprint 3v1.xlsx
+++ b/Rubric-Sprint 3v1.xlsx
@@ -1007,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1252,7 +1252,7 @@
       <c r="D18" s="5"/>
       <c r="E18" s="2">
         <f>SUM(C19:C23)</f>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F18" s="2">
         <f>SUM(D19:D23)</f>
@@ -1319,7 +1319,9 @@
       <c r="B23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="2">
+        <v>10</v>
+      </c>
       <c r="D23" s="2">
         <v>10</v>
       </c>
@@ -1345,7 +1347,7 @@
       <c r="D25" s="5"/>
       <c r="E25" s="2">
         <f>SUM(E7:E24)</f>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F25" s="2">
         <f>SUM(F7:F24)</f>
@@ -1377,7 +1379,7 @@
       <c r="D27" s="5"/>
       <c r="E27" s="2">
         <f>E25*E26</f>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F27" s="10">
         <f>F25*F26</f>
@@ -1395,7 +1397,7 @@
       <c r="E28" s="5"/>
       <c r="F28" s="11">
         <f>E27/F27</f>
-        <v>0.44444444444444442</v>
+        <v>0.51851851851851849</v>
       </c>
       <c r="G28" s="5"/>
     </row>

--- a/Rubric-Sprint 3v1.xlsx
+++ b/Rubric-Sprint 3v1.xlsx
@@ -1007,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1252,7 +1252,7 @@
       <c r="D18" s="5"/>
       <c r="E18" s="2">
         <f>SUM(C19:C23)</f>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F18" s="2">
         <f>SUM(D19:D23)</f>
@@ -1293,7 +1293,9 @@
       <c r="B21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="2">
+        <v>15</v>
+      </c>
       <c r="D21" s="2">
         <v>15</v>
       </c>
@@ -1306,7 +1308,9 @@
       <c r="B22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2">
+        <v>10</v>
+      </c>
       <c r="D22" s="2">
         <v>15</v>
       </c>
@@ -1347,7 +1351,7 @@
       <c r="D25" s="5"/>
       <c r="E25" s="2">
         <f>SUM(E7:E24)</f>
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="F25" s="2">
         <f>SUM(F7:F24)</f>
@@ -1379,7 +1383,7 @@
       <c r="D27" s="5"/>
       <c r="E27" s="2">
         <f>E25*E26</f>
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="F27" s="10">
         <f>F25*F26</f>
@@ -1397,7 +1401,7 @@
       <c r="E28" s="5"/>
       <c r="F28" s="11">
         <f>E27/F27</f>
-        <v>0.51851851851851849</v>
+        <v>0.70370370370370372</v>
       </c>
       <c r="G28" s="5"/>
     </row>

--- a/Rubric-Sprint 3v1.xlsx
+++ b/Rubric-Sprint 3v1.xlsx
@@ -1007,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1101,7 +1101,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="2">
         <f>SUM(C8:C12)</f>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2">
         <f>SUM(D8:D12)</f>
@@ -1157,7 +1157,9 @@
       <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2">
+        <v>8</v>
+      </c>
       <c r="D11" s="2">
         <v>8</v>
       </c>
@@ -1351,7 +1353,7 @@
       <c r="D25" s="5"/>
       <c r="E25" s="2">
         <f>SUM(E7:E24)</f>
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F25" s="2">
         <f>SUM(F7:F24)</f>
@@ -1383,7 +1385,7 @@
       <c r="D27" s="5"/>
       <c r="E27" s="2">
         <f>E25*E26</f>
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F27" s="10">
         <f>F25*F26</f>
@@ -1401,7 +1403,7 @@
       <c r="E28" s="5"/>
       <c r="F28" s="11">
         <f>E27/F27</f>
-        <v>0.70370370370370372</v>
+        <v>0.76296296296296295</v>
       </c>
       <c r="G28" s="5"/>
     </row>

--- a/Rubric-Sprint 3v1.xlsx
+++ b/Rubric-Sprint 3v1.xlsx
@@ -1007,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1254,7 +1254,7 @@
       <c r="D18" s="5"/>
       <c r="E18" s="2">
         <f>SUM(C19:C23)</f>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F18" s="2">
         <f>SUM(D19:D23)</f>
@@ -1267,7 +1267,9 @@
       <c r="B19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2">
+        <v>15</v>
+      </c>
       <c r="D19" s="2">
         <v>15</v>
       </c>
@@ -1311,7 +1313,7 @@
         <v>15</v>
       </c>
       <c r="C22" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D22" s="2">
         <v>15</v>
@@ -1353,7 +1355,7 @@
       <c r="D25" s="5"/>
       <c r="E25" s="2">
         <f>SUM(E7:E24)</f>
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="F25" s="2">
         <f>SUM(F7:F24)</f>
@@ -1385,7 +1387,7 @@
       <c r="D27" s="5"/>
       <c r="E27" s="2">
         <f>E25*E26</f>
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="F27" s="10">
         <f>F25*F26</f>
@@ -1403,7 +1405,7 @@
       <c r="E28" s="5"/>
       <c r="F28" s="11">
         <f>E27/F27</f>
-        <v>0.76296296296296295</v>
+        <v>0.91111111111111109</v>
       </c>
       <c r="G28" s="5"/>
     </row>

--- a/Rubric-Sprint 3v1.xlsx
+++ b/Rubric-Sprint 3v1.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1007,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1101,7 +1101,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="2">
         <f>SUM(C8:C12)</f>
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F7" s="2">
         <f>SUM(D8:D12)</f>
@@ -1144,7 +1144,9 @@
       <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2">
+        <v>5</v>
+      </c>
       <c r="D10" s="2">
         <v>5</v>
       </c>
@@ -1172,7 +1174,9 @@
       <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2">
+        <v>7</v>
+      </c>
       <c r="D12" s="2">
         <v>7</v>
       </c>
@@ -1355,7 +1359,7 @@
       <c r="D25" s="5"/>
       <c r="E25" s="2">
         <f>SUM(E7:E24)</f>
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="F25" s="2">
         <f>SUM(F7:F24)</f>
@@ -1387,7 +1391,7 @@
       <c r="D27" s="5"/>
       <c r="E27" s="2">
         <f>E25*E26</f>
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="F27" s="10">
         <f>F25*F26</f>
@@ -1405,7 +1409,7 @@
       <c r="E28" s="5"/>
       <c r="F28" s="11">
         <f>E27/F27</f>
-        <v>0.91111111111111109</v>
+        <v>1</v>
       </c>
       <c r="G28" s="5"/>
     </row>

--- a/Rubric-Sprint 3v1.xlsx
+++ b/Rubric-Sprint 3v1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Total</t>
   </si>
@@ -125,6 +125,15 @@
       </rPr>
       <t xml:space="preserve"> login credentials against Active Directory</t>
     </r>
+  </si>
+  <si>
+    <t>Bruce R. Hansen</t>
+  </si>
+  <si>
+    <t>pearl18</t>
+  </si>
+  <si>
+    <t>brucehnsn@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -238,7 +247,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="202">
+  <cellStyleXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -441,8 +450,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -465,8 +475,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="202" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="202">
+  <cellStyles count="203">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -667,6 +678,7 @@
     <cellStyle name="Hyperlink" xfId="196" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="198" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="202" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -1007,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1054,7 +1066,9 @@
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -1065,7 +1079,9 @@
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1076,7 +1092,9 @@
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1448,6 +1466,9 @@
     <mergeCell ref="F1:F6"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
